--- a/RESULTS/SET 1 [0..5] Single/040.0%/BE.xlsx
+++ b/RESULTS/SET 1 [0..5] Single/040.0%/BE.xlsx
@@ -17,9 +17,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>Feature index</t>
   </si>
@@ -89,25 +86,106 @@
     <t>Mallow Test</t>
   </si>
   <si>
+    <t>031155</t>
+  </si>
+  <si>
+    <t>H-H</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>003111</t>
+  </si>
+  <si>
     <t>010155</t>
   </si>
   <si>
     <t>O-H</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>001101</t>
   </si>
   <si>
-    <t>040055</t>
+    <t>071155</t>
+  </si>
+  <si>
+    <t>007111</t>
+  </si>
+  <si>
+    <t>081155</t>
+  </si>
+  <si>
+    <t>008111</t>
+  </si>
+  <si>
+    <t>091155</t>
+  </si>
+  <si>
+    <t>009111</t>
+  </si>
+  <si>
+    <t>121155</t>
+  </si>
+  <si>
+    <t>012111</t>
+  </si>
+  <si>
+    <t>141155</t>
+  </si>
+  <si>
+    <t>014111</t>
+  </si>
+  <si>
+    <t>151155</t>
+  </si>
+  <si>
+    <t>015111</t>
+  </si>
+  <si>
+    <t>010055</t>
   </si>
   <si>
     <t>O-O</t>
   </si>
   <si>
-    <t>004100</t>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>070055</t>
+  </si>
+  <si>
+    <t>007100</t>
+  </si>
+  <si>
+    <t>020055</t>
+  </si>
+  <si>
+    <t>002100</t>
+  </si>
+  <si>
+    <t>060155</t>
+  </si>
+  <si>
+    <t>006101</t>
+  </si>
+  <si>
+    <t>050155</t>
+  </si>
+  <si>
+    <t>005101</t>
+  </si>
+  <si>
+    <t>040155</t>
+  </si>
+  <si>
+    <t>004101</t>
+  </si>
+  <si>
+    <t>150055</t>
+  </si>
+  <si>
+    <t>015100</t>
   </si>
   <si>
     <t>050055</t>
@@ -116,19 +194,64 @@
     <t>005100</t>
   </si>
   <si>
-    <t>041155</t>
-  </si>
-  <si>
-    <t>H-H</t>
-  </si>
-  <si>
-    <t>004111</t>
-  </si>
-  <si>
-    <t>090055</t>
-  </si>
-  <si>
-    <t>009100</t>
+    <t>061155</t>
+  </si>
+  <si>
+    <t>006111</t>
+  </si>
+  <si>
+    <t>101155</t>
+  </si>
+  <si>
+    <t>010111</t>
+  </si>
+  <si>
+    <t>090155</t>
+  </si>
+  <si>
+    <t>009101</t>
+  </si>
+  <si>
+    <t>080155</t>
+  </si>
+  <si>
+    <t>008101</t>
+  </si>
+  <si>
+    <t>111155</t>
+  </si>
+  <si>
+    <t>011111</t>
+  </si>
+  <si>
+    <t>131155</t>
+  </si>
+  <si>
+    <t>013111</t>
+  </si>
+  <si>
+    <t>150155</t>
+  </si>
+  <si>
+    <t>015101</t>
+  </si>
+  <si>
+    <t>021155</t>
+  </si>
+  <si>
+    <t>002111</t>
+  </si>
+  <si>
+    <t>130055</t>
+  </si>
+  <si>
+    <t>013100</t>
+  </si>
+  <si>
+    <t>011155</t>
+  </si>
+  <si>
+    <t>001111</t>
   </si>
   <si>
     <t>051155</t>
@@ -137,154 +260,10 @@
     <t>005111</t>
   </si>
   <si>
-    <t>100055</t>
-  </si>
-  <si>
-    <t>010100</t>
-  </si>
-  <si>
-    <t>110055</t>
-  </si>
-  <si>
-    <t>011100</t>
-  </si>
-  <si>
-    <t>140055</t>
-  </si>
-  <si>
-    <t>014100</t>
-  </si>
-  <si>
-    <t>150055</t>
-  </si>
-  <si>
-    <t>015100</t>
-  </si>
-  <si>
-    <t>091155</t>
-  </si>
-  <si>
-    <t>009111</t>
-  </si>
-  <si>
-    <t>121155</t>
-  </si>
-  <si>
-    <t>012111</t>
-  </si>
-  <si>
-    <t>131155</t>
-  </si>
-  <si>
-    <t>013111</t>
-  </si>
-  <si>
-    <t>141155</t>
-  </si>
-  <si>
-    <t>014111</t>
-  </si>
-  <si>
-    <t>151155</t>
-  </si>
-  <si>
-    <t>015111</t>
-  </si>
-  <si>
-    <t>011155</t>
-  </si>
-  <si>
-    <t>001111</t>
-  </si>
-  <si>
-    <t>020055</t>
-  </si>
-  <si>
-    <t>002100</t>
-  </si>
-  <si>
-    <t>031155</t>
-  </si>
-  <si>
-    <t>003111</t>
-  </si>
-  <si>
-    <t>120055</t>
-  </si>
-  <si>
-    <t>012100</t>
-  </si>
-  <si>
-    <t>130055</t>
-  </si>
-  <si>
-    <t>013100</t>
-  </si>
-  <si>
-    <t>150155</t>
-  </si>
-  <si>
-    <t>015101</t>
-  </si>
-  <si>
-    <t>140155</t>
-  </si>
-  <si>
-    <t>014101</t>
-  </si>
-  <si>
-    <t>010055</t>
-  </si>
-  <si>
-    <t>001100</t>
-  </si>
-  <si>
-    <t>021155</t>
-  </si>
-  <si>
-    <t>002111</t>
-  </si>
-  <si>
-    <t>071155</t>
-  </si>
-  <si>
-    <t>007111</t>
-  </si>
-  <si>
     <t>080055</t>
   </si>
   <si>
     <t>008100</t>
-  </si>
-  <si>
-    <t>111155</t>
-  </si>
-  <si>
-    <t>011111</t>
-  </si>
-  <si>
-    <t>040155</t>
-  </si>
-  <si>
-    <t>004101</t>
-  </si>
-  <si>
-    <t>101155</t>
-  </si>
-  <si>
-    <t>010111</t>
-  </si>
-  <si>
-    <t>060055</t>
-  </si>
-  <si>
-    <t>006100</t>
-  </si>
-  <si>
-    <t>020155</t>
-  </si>
-  <si>
-    <t>002101</t>
   </si>
 </sst>
 </file>
@@ -708,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -717,7 +696,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -732,27 +711,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1213515129169545</v>
+        <v>1.640115737435187</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.710053454494721e-07</v>
+        <v>3.628468162258507e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006091020813044987</v>
+        <v>0.0006023676752830041</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9193622421433746</v>
+        <v>0.9278492463181343</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9147805513560663</v>
+        <v>0.9237497716771191</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>51.30990624988264</v>
+        <v>61.3992566400814</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -761,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -770,7 +749,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -779,13 +758,13 @@
         <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>473.3542061421912</v>
+        <v>-0.1633131584342793</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -804,16 +783,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
@@ -822,13 +801,13 @@
         <v>28</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-2802.004384479267</v>
+        <v>-1952.362170041843</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -847,23 +826,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="n">
-        <v>-4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
@@ -871,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>12.71584967551762</v>
+        <v>12001.09762328181</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -890,13 +869,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
         <v>-9</v>
@@ -905,16 +884,16 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1994849.295680246</v>
+        <v>-21662.48688014668</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -933,23 +912,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
@@ -957,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-48.94505614719128</v>
+        <v>89593.7218424038</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -976,31 +955,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-12215842.12413701</v>
+        <v>-327603.8661741981</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -1019,31 +998,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>22318144.83907451</v>
+        <v>282673.2325834041</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -1062,16 +1041,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" t="n">
-        <v>-14</v>
+        <v>-1</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1086,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-120339471.8504617</v>
+        <v>0.637996798108702</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -1105,16 +1084,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
-        <v>-15</v>
+        <v>-7</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1129,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>150563829.6474715</v>
+        <v>38.57661647611803</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -1148,16 +1127,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E12" t="n">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1166,13 +1145,13 @@
         <v>45</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>3165.94962413609</v>
+        <v>-0.9163007325696526</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -1191,16 +1170,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1215,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-259683.9484906644</v>
+        <v>6.01617919182172</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -1234,16 +1213,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>-13</v>
+        <v>-5</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -1258,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1018465.232840493</v>
+        <v>-7.088034506567055</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -1277,16 +1256,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>-14</v>
+        <v>-4</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1301,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>-1452984.517115101</v>
+        <v>2.238091853796504</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -1320,13 +1299,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E16" t="n">
         <v>-15</v>
@@ -1338,13 +1317,13 @@
         <v>53</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>731827.1687420309</v>
+        <v>-23066.47403429085</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -1447,10 +1426,10 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -1459,7 +1438,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -1468,27 +1447,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06351659769167288</v>
+        <v>0.06267420974823203</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.231676589721743e-07</v>
+        <v>4.769255525670714e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006505133810861804</v>
+        <v>0.0006905979673928033</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9080247990076451</v>
+        <v>0.9051651095473967</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9060033660188022</v>
+        <v>0.903080826240746</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>87.34515724764071</v>
+        <v>155.2037771584049</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -1500,10 +1479,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -1512,7 +1491,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -1521,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1236079476462137</v>
+        <v>-0.1217308498764011</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1543,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -1555,7 +1534,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1564,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2412435321472401</v>
+        <v>0.2376312485112828</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1586,10 +1565,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E5" t="n">
         <v>-15</v>
@@ -1598,7 +1577,7 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1607,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>18833.39273446713</v>
+        <v>17926.58480643309</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1629,10 +1608,10 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
         <v>-5</v>
@@ -1641,7 +1620,7 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -1650,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1166376729241072</v>
+        <v>-0.134441901913418</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -1669,22 +1648,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -1693,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.056750140198638</v>
+        <v>1.247716440235553</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -1796,10 +1775,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -1808,7 +1787,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -1817,27 +1796,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.119266264247577</v>
+        <v>-0.1150288776774955</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.492300085956493e-07</v>
+        <v>5.039018006023345e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006702462298257628</v>
+        <v>0.0007098604092371502</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9023601651583231</v>
+        <v>0.8998009819315113</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9005784163473436</v>
+        <v>0.8979725326966848</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>108.6071598867885</v>
+        <v>178.7732735867105</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -1846,13 +1825,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -1861,16 +1840,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05844956695257567</v>
+        <v>0.2360864777489809</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1889,13 +1868,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -1904,16 +1883,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2437521683018322</v>
+        <v>0.05598233411516212</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1932,22 +1911,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1956,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>9217.474086530454</v>
+        <v>27346.4700335436</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1975,22 +1954,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -1999,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.022354638136513</v>
+        <v>-18.09411129380428</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2012,666 +1991,6 @@
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.132731669092171</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>5.720571402399428e-07</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0007563445909371883</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.87566377217844</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.8738552452283083</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>211.8779835730839</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0651478443220469</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.2685786820825883</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>14459.59111333626</v>
-      </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.07310461593616419</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>1.251461391074187e-06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.00111868735179861</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.7279957233551513</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.7250391551307507</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>788.3915167560353</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.03580848639557926</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1478286883533101</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.01478340246879329</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>2.108339449667325e-06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.001452012207134405</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.5417538639076052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.5384452275459273</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>1520.274482147498</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.003220793303345066</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2759,51 +2078,51 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1193350909754474</v>
+        <v>5.105129402863929</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.822760804717315e-07</v>
+        <v>3.655667637552119e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006182847891317815</v>
+        <v>0.0006046211737569335</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9169125556018233</v>
+        <v>0.9273083947646887</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9125230302373912</v>
+        <v>0.92346808354471</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>59.6349302446089</v>
+        <v>62.91744666142775</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -2812,22 +2131,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -2836,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1088252207690015</v>
+        <v>1.776360423825387</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2855,31 +2174,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5745737048791602</v>
+        <v>-0.1581190123401316</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -2898,22 +2217,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -2922,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.4670161255376071</v>
+        <v>-177.4850327090713</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2941,23 +2260,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="n">
-        <v>-9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
       <c r="H6" t="n">
         <v>4</v>
       </c>
@@ -2965,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>709.8475428051975</v>
+        <v>2873.560297575418</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2984,22 +2303,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -3008,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-88024.11514435217</v>
+        <v>-23308.32921855746</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3027,31 +2346,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E8" t="n">
-        <v>-13</v>
+        <v>-1</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>373962.6679219397</v>
+        <v>0.6223669319454626</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3070,22 +2389,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -3094,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-568765.2075028647</v>
+        <v>107847.5198173187</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3113,22 +2432,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -3137,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>301749.8139324242</v>
+        <v>-345673.5140929513</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3156,31 +2475,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-128188.6664539285</v>
+        <v>291085.375990429</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3199,22 +2518,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E12" t="n">
-        <v>-13</v>
+        <v>-2</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -3223,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>486972.4863872263</v>
+        <v>-0.9518965450988617</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3242,31 +2561,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-1055466.769342132</v>
+        <v>4.465958165688789</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3285,22 +2604,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
@@ -3309,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>56.87760662962683</v>
+        <v>-5.419883623719215</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -3328,22 +2647,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>-14</v>
+        <v>-4</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
@@ -3352,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>-34.21118125278736</v>
+        <v>1.777413651871029</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -3455,10 +2774,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -3467,7 +2786,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -3476,27 +2795,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.120717353486825</v>
+        <v>-0.1141945360912176</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.859825499045749e-07</v>
+        <v>3.751262521077271e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006212749390604573</v>
+        <v>0.0006124755114351325</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9161069570079095</v>
+        <v>0.9254075256965206</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9120069210722058</v>
+        <v>0.9217620288320649</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>61.83939685461448</v>
+        <v>70.36732570281548</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -3505,13 +2824,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -3520,16 +2839,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1094460446501981</v>
+        <v>0.4410911448696618</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -3551,10 +2870,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
         <v>-2</v>
@@ -3563,7 +2882,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -3572,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5913927232246389</v>
+        <v>-0.5952099131437584</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -3594,10 +2913,10 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
         <v>-3</v>
@@ -3606,7 +2925,7 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -3615,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.4668997754161049</v>
+        <v>1.245116678768769</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -3634,31 +2953,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>716.5049462677836</v>
+        <v>4.151191674781158</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -3677,22 +2996,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -3701,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-89307.93457444996</v>
+        <v>-1137.32387873801</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3720,23 +3039,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="n">
-        <v>-13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
@@ -3744,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>380016.2592340337</v>
+        <v>5283.421536303801</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3763,22 +3082,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -3787,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-578868.6227084697</v>
+        <v>-28918.36251879521</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3806,22 +3125,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -3830,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>307581.8202416451</v>
+        <v>121722.3665878564</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3849,31 +3168,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-3222.65407734958</v>
+        <v>-374878.2486669261</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3892,31 +3211,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E12" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>121153.913881438</v>
+        <v>311928.4664123064</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3935,31 +3254,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-15</v>
+        <v>-9</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-455913.3066692182</v>
+        <v>4.155860132028465</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3978,22 +3297,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
@@ -4002,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.367735193634871</v>
+        <v>-2.508694288611878</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -4105,10 +3424,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -4117,7 +3436,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -4126,27 +3445,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1186620862277416</v>
+        <v>-0.1223522658202607</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.897397389675552e-07</v>
+        <v>3.847490793112672e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006242913894709386</v>
+        <v>0.0006202814516904944</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9152903345371062</v>
+        <v>0.9234940619309915</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9114831585612457</v>
+        <v>0.9200555928042945</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>64.10823985030984</v>
+        <v>77.93409568480425</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -4155,13 +3474,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -4170,16 +3489,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1069284797304276</v>
+        <v>0.4670319175992411</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4201,10 +3520,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
         <v>-2</v>
@@ -4213,7 +3532,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -4222,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5907624568093414</v>
+        <v>-0.6051325190155383</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4244,10 +3563,10 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
         <v>-3</v>
@@ -4256,7 +3575,7 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -4265,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.4518239082846727</v>
+        <v>1.315413108542766</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4284,31 +3603,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>689.3428292146722</v>
+        <v>3.770199031155611</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4327,22 +3646,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -4351,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-85902.11764436001</v>
+        <v>-843.0412768452309</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -4370,22 +3689,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -4394,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>365569.4002682965</v>
+        <v>36571.44815897566</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -4413,22 +3732,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -4437,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-556956.0838659618</v>
+        <v>-156430.6782368261</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -4456,22 +3775,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -4480,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>295996.185177737</v>
+        <v>224437.2390988127</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -4499,31 +3818,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-728.6377220917493</v>
+        <v>-213194.6445938644</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -4542,31 +3861,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E12" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>75066.38941880263</v>
+        <v>138243.708243344</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -4585,10 +3904,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -4600,16 +3919,16 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-301192.7529334556</v>
+        <v>6.349183591199107</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -4709,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -4724,36 +4043,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2466171194111878</v>
+        <v>-0.1192155503211526</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.961600425921198e-07</v>
+        <v>3.86610379406916e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006294124582434953</v>
+        <v>0.0006217800088511337</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9138948859394144</v>
+        <v>0.9231239492588561</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9103607208100619</v>
+        <v>0.919968588967242</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>68.59559219709108</v>
+        <v>78.80161883117107</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -4762,22 +4081,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -4786,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1193176234660525</v>
+        <v>0.6963233767287712</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4805,31 +4124,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6275024697164063</v>
+        <v>0.2340904286173928</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4851,10 +4170,10 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
         <v>-3</v>
@@ -4863,7 +4182,7 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -4872,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.778629677597021</v>
+        <v>-2.074099422624567</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4894,10 +4213,10 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
         <v>-7</v>
@@ -4906,7 +4225,7 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -4915,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>62.79319061597561</v>
+        <v>83.33943571545666</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4934,31 +4253,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>644.0726270815949</v>
+        <v>-82654.54814859624</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -4977,22 +4296,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -5001,7 +4320,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-54753.09289135571</v>
+        <v>394421.7806300933</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5020,22 +4339,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -5044,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>255500.2702348063</v>
+        <v>-650536.1017581928</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5063,22 +4382,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -5087,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-412522.2100591342</v>
+        <v>367056.7154866412</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5106,31 +4425,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>228091.512532825</v>
+        <v>2008.41060931427</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5149,31 +4468,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-77.96375077209763</v>
+        <v>4.370451789876999</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -5273,51 +4592,51 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2485266545644884</v>
+        <v>0.686246178305464</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.129257584985944e-07</v>
+        <v>3.984539531414988e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006425929959924823</v>
+        <v>0.0006312320913431912</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9102508690643437</v>
+        <v>0.9207688982207204</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9069144701448026</v>
+        <v>0.9178235041025316</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>81.68279324846111</v>
+        <v>88.40973792913465</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -5329,10 +4648,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -5341,7 +4660,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -5350,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1213858169784776</v>
+        <v>-0.1177678527979085</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5369,13 +4688,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -5384,16 +4703,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05924272067801664</v>
+        <v>0.2309825955582899</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5412,31 +4731,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>588.6373489827282</v>
+        <v>-2.037039261248503</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5455,22 +4774,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -5479,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-68.35712419096956</v>
+        <v>17817.91132286303</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -5498,22 +4817,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -5522,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-30457.8710626658</v>
+        <v>81.08021934034939</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -5541,22 +4860,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -5565,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>3723.374676034497</v>
+        <v>-80241.1155195723</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5587,10 +4906,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
         <v>-13</v>
@@ -5599,7 +4918,7 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -5608,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>92200.92638614368</v>
+        <v>382886.7368064234</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5630,10 +4949,10 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
         <v>-14</v>
@@ -5642,7 +4961,7 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -5651,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-122723.3549872915</v>
+        <v>-631500.1202199042</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5673,10 +4992,10 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
         <v>-15</v>
@@ -5685,7 +5004,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -5694,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>60719.67972375963</v>
+        <v>356315.6293896614</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5794,13 +5113,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -5809,7 +5128,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -5818,27 +5137,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06201275352716214</v>
+        <v>-0.1206917571110991</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.145169944203438e-07</v>
+        <v>4.354593904054092e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006438299421589088</v>
+        <v>0.0006598934689822359</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9099050150260539</v>
+        <v>0.9134105032465277</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9069018488602557</v>
+        <v>0.9105241866880787</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>82.26985831040504</v>
+        <v>120.1776907711711</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -5847,10 +5166,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -5862,7 +5181,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -5871,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1245206682583627</v>
+        <v>0.06073035564818498</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5893,10 +5212,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -5905,7 +5224,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -5914,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2496379097547367</v>
+        <v>0.2389762231443897</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5933,22 +5252,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E5" t="n">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -5957,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1993.42889747049</v>
+        <v>18032.32553414173</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5976,31 +5295,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-25.21433491772401</v>
+        <v>125296.6978851165</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6019,22 +5338,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -6043,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-70.47527844214473</v>
+        <v>-237333.3845976418</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6065,10 +5384,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
         <v>-13</v>
@@ -6077,7 +5396,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -6086,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>461.7135036207677</v>
+        <v>166260.2873285989</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6105,22 +5424,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -6129,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-755.8725086517475</v>
+        <v>-50851.78759252049</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6148,22 +5467,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -6172,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01108299152063198</v>
+        <v>5694.586939576378</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -6272,13 +5591,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -6287,36 +5606,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2439955394446678</v>
+        <v>0.06171472053149712</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.153812830830261e-07</v>
+        <v>4.513384448381901e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006445008014603443</v>
+        <v>0.0006718172704226872</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9097171624768807</v>
+        <v>0.9102530117271109</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9070519864614381</v>
+        <v>0.9076036541397193</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>82.26069544401567</v>
+        <v>133.5754992595759</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -6328,10 +5647,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -6340,7 +5659,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -6349,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1217562387470645</v>
+        <v>-0.1208610652751151</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6368,13 +5687,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -6383,16 +5702,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0607647847440748</v>
+        <v>0.2367721296677628</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6411,22 +5730,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E5" t="n">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -6435,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1977.227510803259</v>
+        <v>18223.18868070164</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6454,31 +5773,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-22.37226375676635</v>
+        <v>-2903.826223973639</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6497,22 +5816,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -6521,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-339.9614001768666</v>
+        <v>15697.86457785785</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6540,22 +5859,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -6564,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>928.9300691371249</v>
+        <v>-28351.75369765231</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6586,10 +5905,10 @@
         <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
         <v>-15</v>
@@ -6598,7 +5917,7 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -6607,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-1024.813615829412</v>
+        <v>17101.2981723606</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6707,10 +6026,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -6722,7 +6041,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -6731,27 +6050,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1213933352339817</v>
+        <v>0.06161832780160176</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.198825617548537e-07</v>
+        <v>4.576888161307647e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006479834579330353</v>
+        <v>0.0006765270254252706</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9087388126389713</v>
+        <v>0.9089902637727958</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9063901791407095</v>
+        <v>0.9066481014434192</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>85.29976128050063</v>
+        <v>138.6516617368897</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -6760,10 +6079,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -6775,16 +6094,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.241996582367816</v>
+        <v>-0.1207648670371417</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6803,13 +6122,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -6818,16 +6137,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06093570091517769</v>
+        <v>0.2367897123841789</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6846,22 +6165,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E5" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -6870,7 +6189,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>4226.030756101409</v>
+        <v>18255.29770651878</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6892,10 +6211,10 @@
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
         <v>-10</v>
@@ -6904,7 +6223,7 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -6913,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.292371689717672</v>
+        <v>-101.2146695562664</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6932,22 +6251,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -6956,7 +6275,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.5486330279077607</v>
+        <v>276.6332604891833</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6975,31 +6294,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-14.8142966607176</v>
+        <v>-307.3014730374118</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
